--- a/TextMining/수화 단어.xlsx
+++ b/TextMining/수화 단어.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seoralee/Desktop/Seora/4-2/캡스톤디자인/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\handypotter\TextMining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCE286-0D27-B54E-8033-69FB23FC5932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56235E63-229B-4ECF-B23A-6F2EBEB6FC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="460" windowWidth="14200" windowHeight="14380" activeTab="1" xr2:uid="{4AFB4AEE-9234-254F-BE17-0877836DA404}"/>
+    <workbookView xWindow="2130" yWindow="1590" windowWidth="15045" windowHeight="11385" activeTab="1" xr2:uid="{4AFB4AEE-9234-254F-BE17-0877836DA404}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="270">
   <si>
     <t>나</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,6 +1055,42 @@
   </si>
   <si>
     <t>H17+P13+D5+M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0+P0+D0+M0+H1+P13+D4+M7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11+P7+D9+H1+P14+M5+M7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H12+P7+D4+M8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H12+P7+D4+M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11+P13+D5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11+P13+D5+M13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1098,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1441,9 +1475,9 @@
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -1451,7 +1485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -1459,7 +1493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>99</v>
       </c>
@@ -1467,7 +1501,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -1475,7 +1509,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
@@ -1483,7 +1517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
@@ -1491,7 +1525,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -1509,17 +1543,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F026281-9007-CD43-BFD7-3C568791833D}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1533,7 +1567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1567,7 +1601,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +1618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -1598,7 +1632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1649,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1629,7 +1663,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1643,7 +1677,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1660,7 +1694,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1673,7 +1707,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1715,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1709,7 +1743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -1726,7 +1760,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1740,7 +1774,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -1757,7 +1791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -1774,7 +1808,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -1788,7 +1822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -1805,7 +1839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -1822,7 +1856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -1839,7 +1873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -1856,7 +1890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -1873,7 +1907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -1890,7 +1924,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -1907,7 +1941,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>171</v>
       </c>
@@ -1924,7 +1958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>174</v>
       </c>
@@ -1941,7 +1975,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -1952,7 +1986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>66</v>
       </c>
@@ -1960,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -1977,7 +2011,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -1991,7 +2025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>186</v>
       </c>
@@ -2008,7 +2042,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -2025,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>196</v>
       </c>
@@ -2042,7 +2076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -2059,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>200</v>
       </c>
@@ -2076,7 +2110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -2093,7 +2127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -2107,7 +2141,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -2124,7 +2158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -2141,7 +2175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -2158,7 +2192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>215</v>
       </c>
@@ -2172,7 +2206,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -2183,7 +2217,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -2197,7 +2231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>222</v>
       </c>
@@ -2214,7 +2248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -2228,7 +2262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>227</v>
       </c>
@@ -2245,7 +2279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>229</v>
       </c>
@@ -2262,7 +2296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>234</v>
       </c>
@@ -2279,7 +2313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>237</v>
       </c>
@@ -2293,7 +2327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>239</v>
       </c>
@@ -2310,7 +2344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>241</v>
       </c>
@@ -2327,7 +2361,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>244</v>
       </c>
@@ -2344,7 +2378,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -2361,7 +2395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>250</v>
       </c>
@@ -2378,7 +2412,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>259</v>
       </c>
@@ -2392,7 +2426,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>252</v>
       </c>
@@ -2406,7 +2440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -2423,7 +2457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>257</v>
       </c>
@@ -2437,7 +2471,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" t="s">
+        <v>264</v>
+      </c>
       <c r="D61" t="s">
         <v>53</v>
       </c>
@@ -2445,7 +2488,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" t="s">
+        <v>265</v>
+      </c>
       <c r="D62" t="s">
         <v>54</v>
       </c>
@@ -2453,7 +2505,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" t="s">
+        <v>269</v>
+      </c>
       <c r="D63" t="s">
         <v>55</v>
       </c>
@@ -2461,7 +2522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>56</v>
       </c>
@@ -2469,7 +2530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>24</v>
       </c>
@@ -2477,7 +2538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -2485,7 +2546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>97</v>
       </c>
@@ -2493,7 +2554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -2501,7 +2562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
@@ -2509,7 +2570,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
@@ -2517,7 +2578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -2525,7 +2586,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>131</v>
       </c>
@@ -2533,19 +2594,19 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -2553,7 +2614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>105</v>
       </c>
@@ -2561,7 +2622,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -2569,7 +2630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -2577,7 +2638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -2585,7 +2646,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -2593,7 +2654,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -2601,7 +2662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -2609,7 +2670,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -2617,7 +2678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -2625,7 +2686,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -2633,7 +2694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>123</v>
       </c>
@@ -2641,7 +2702,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -2649,7 +2710,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -2660,5 +2721,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>